--- a/data/Amesbury et al. (1999) Survey Data.xlsx
+++ b/data/Amesbury et al. (1999) Survey Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3CCFF5-18A9-4863-BC73-CAD6062D7FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EECD31BD-50E7-491E-9E06-D4779B589B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12924" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12965" uniqueCount="154">
   <si>
     <t>Source</t>
   </si>
@@ -282,10 +282,10 @@
     <t>Percent Coral Cover</t>
   </si>
   <si>
-    <t>&gt;0.01</t>
+    <t>&lt;0.01</t>
   </si>
   <si>
-    <t>&lt;0.01</t>
+    <t>&gt;0.01</t>
   </si>
   <si>
     <t>GPS Location</t>
@@ -49970,7 +49970,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50006,19 +50006,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>53.53</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -50026,19 +50026,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>73.569999999999993</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -50046,19 +50046,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>84.33</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -50066,19 +50066,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>5.6</v>
+        <v>9.14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -50086,19 +50086,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>12.28</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -50106,19 +50106,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>6.5439999999999996</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -50126,19 +50126,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3.3410000000000002</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -50146,10 +50146,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -50158,7 +50158,7 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>5.8440000000000003</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -50166,19 +50166,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>0.307</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -50186,19 +50186,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>11.06</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -50206,19 +50206,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>0.38600000000000001</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -50226,19 +50226,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>3.3000000000000002E-2</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -50246,19 +50246,19 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>83.62</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -50266,19 +50266,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>7.56</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -50286,19 +50286,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>3.25</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -50306,7 +50306,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -50315,10 +50315,10 @@
         <v>80</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>13.885999999999999</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -50329,16 +50329,16 @@
         <v>81</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>17.7</v>
+        <v>9.8529999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -50349,16 +50349,16 @@
         <v>81</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>9.14</v>
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -50369,16 +50369,16 @@
         <v>81</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <v>10.93</v>
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -50389,16 +50389,16 @@
         <v>81</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>13.43</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -50409,16 +50409,16 @@
         <v>81</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>4.42</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -50429,16 +50429,16 @@
         <v>81</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>9.06</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -50449,16 +50449,16 @@
         <v>81</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E24">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>9.41</v>
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -50469,16 +50469,16 @@
         <v>81</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>10.97</v>
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -50486,19 +50486,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>7.56</v>
+        <v>53.53</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -50506,19 +50506,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>3.25</v>
+        <v>73.569999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -50526,19 +50526,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>19.05</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -50546,19 +50546,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>6.59</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -50566,19 +50566,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>6.41</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -50586,10 +50586,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -50598,7 +50598,7 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>0.96</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -50606,19 +50606,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
       </c>
       <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>83.62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -50626,19 +50626,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
       </c>
       <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>0.19</v>
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -50646,19 +50646,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F34">
-        <v>0.14299999999999999</v>
+        <v>84.33</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -50666,19 +50666,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>0.23</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -50686,19 +50686,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>9.8529999999999998</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -50706,19 +50706,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>85</v>
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>6.5439999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -50726,19 +50726,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>85</v>
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>3.3410000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -50746,19 +50746,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F39">
-        <v>1.2999999999999999E-2</v>
+        <v>5.8440000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -50766,10 +50766,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -50786,32 +50786,36 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>13.885999999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="C2:C41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D5C7EE-304E-482E-9DE6-D2D806389C4B}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50820,9 +50824,11 @@
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -50844,8 +50850,11 @@
       <c r="G1" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -50867,8 +50876,11 @@
       <c r="G2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -50890,8 +50902,11 @@
       <c r="G3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -50913,8 +50928,11 @@
       <c r="G4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -50936,8 +50954,11 @@
       <c r="G5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -50959,8 +50980,11 @@
       <c r="G6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -50982,8 +51006,11 @@
       <c r="G7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -51005,8 +51032,11 @@
       <c r="G8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -51028,8 +51058,11 @@
       <c r="G9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -51051,8 +51084,11 @@
       <c r="G10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -51074,8 +51110,11 @@
       <c r="G11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -51097,8 +51136,11 @@
       <c r="G12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -51120,8 +51162,11 @@
       <c r="G13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -51143,8 +51188,11 @@
       <c r="G14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -51166,8 +51214,11 @@
       <c r="G15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -51189,8 +51240,11 @@
       <c r="G16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -51212,8 +51266,11 @@
       <c r="G17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -51235,8 +51292,11 @@
       <c r="G18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -51258,8 +51318,11 @@
       <c r="G19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -51281,8 +51344,11 @@
       <c r="G20" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -51304,8 +51370,11 @@
       <c r="G21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -51327,8 +51396,11 @@
       <c r="G22" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -51350,8 +51422,11 @@
       <c r="G23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -51373,8 +51448,11 @@
       <c r="G24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -51396,8 +51474,11 @@
       <c r="G25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -51419,8 +51500,11 @@
       <c r="G26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -51442,8 +51526,11 @@
       <c r="G27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -51465,8 +51552,11 @@
       <c r="G28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -51488,8 +51578,11 @@
       <c r="G29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -51511,8 +51604,11 @@
       <c r="G30" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -51534,8 +51630,11 @@
       <c r="G31" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -51557,8 +51656,11 @@
       <c r="G32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -51580,8 +51682,11 @@
       <c r="G33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -51603,8 +51708,11 @@
       <c r="G34" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -51626,8 +51734,11 @@
       <c r="G35" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -51649,8 +51760,11 @@
       <c r="G36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -51672,8 +51786,11 @@
       <c r="G37" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -51695,8 +51812,11 @@
       <c r="G38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -51718,8 +51838,11 @@
       <c r="G39" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -51741,8 +51864,11 @@
       <c r="G40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -51763,6 +51889,9 @@
       </c>
       <c r="G41" t="s">
         <v>103</v>
+      </c>
+      <c r="H41" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
